--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313853.4215789961</v>
+        <v>309265.1395549942</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6910952.519696834</v>
+        <v>6910952.519696828</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5679392.350027581</v>
+        <v>5679392.35002758</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>121.2100176515589</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>243.0153142244799</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>21.56198749430949</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>108.6835547225988</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>125.5898288290612</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>112.5885169387731</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.06671358300055</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.5909258267186</v>
@@ -1824,16 +1824,16 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>149.9869816139316</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>228.2758514273738</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458684</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>204.5281633465506</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>111.2648595921822</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578065</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>97.0007122468182</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>292.5885625432985</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>81.54257852801791</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.32136466518996</v>
+        <v>63.32136466518995</v>
       </c>
       <c r="T21" t="n">
         <v>136.7309641056443</v>
@@ -2247,16 +2247,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33.08508123736336</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>171.0792902052574</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>77.29632582692865</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.0298839804087</v>
+        <v>262.6443225690311</v>
       </c>
       <c r="H23" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>42.201606023925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>123.847446716694</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S25" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.5633491017144</v>
@@ -2560,10 +2560,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>381.7140491513761</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>51.69198155551911</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>277.0103058729873</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5780456014529</v>
+        <v>72.45766045752018</v>
       </c>
       <c r="H28" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>112.7771609700338</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.0298839804087</v>
+        <v>261.7188794623353</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T29" t="n">
-        <v>76.36620350768719</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>34.18106688523654</v>
       </c>
       <c r="I31" t="n">
         <v>68.20633367524529</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S31" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V31" t="n">
-        <v>203.9870626351348</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3031,16 +3031,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>68.87541728704839</v>
+        <v>281.2237915076289</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>208.7978291248855</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3192,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>42.20160602392545</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>150.7214115632189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U34" t="n">
-        <v>28.33406785094009</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>289.6447000475101</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>51.69198155551911</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>82.29199723398294</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>41.33236882872061</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.5780456014529</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.02768500008775</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>329.3652279674525</v>
+        <v>21.42020858791849</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3711,7 +3711,7 @@
         <v>0.8692371952046898</v>
       </c>
       <c r="S40" t="n">
-        <v>150.7214115632189</v>
+        <v>36.0768889486406</v>
       </c>
       <c r="T40" t="n">
         <v>236.5633491017144</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>227.3447772734133</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.46649011235138</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0298839804087</v>
+        <v>262.6443225690316</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.69198155551911</v>
+        <v>51.6919815555191</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>23.65393901794055</v>
+        <v>10.05688147549078</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>68.20633367524528</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952046827</v>
       </c>
       <c r="S43" t="n">
         <v>150.7214115632189</v>
@@ -3954,7 +3954,7 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>223.7407027424091</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.6919815555191</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>262.6443225690317</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.2016060239259</v>
       </c>
       <c r="E46" t="n">
-        <v>160.7782930387086</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4152,10 +4152,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T46" t="n">
         <v>236.5633491017144</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>988.6226695829739</v>
+        <v>986.4266587233934</v>
       </c>
       <c r="C11" t="n">
-        <v>561.7219395962741</v>
+        <v>986.4266587233934</v>
       </c>
       <c r="D11" t="n">
-        <v>561.7219395962741</v>
+        <v>986.4266587233934</v>
       </c>
       <c r="E11" t="n">
-        <v>561.7219395962741</v>
+        <v>863.9922974591925</v>
       </c>
       <c r="F11" t="n">
-        <v>561.7219395962741</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K11" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.808303919614</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="Y11" t="n">
-        <v>1408.471033874504</v>
+        <v>986.4266587233934</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>207.6760385564194</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>333.4446641276594</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>510.0835149583083</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>719.3582134393233</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>936.5131952716395</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1131.556862259126</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.2487291994763</v>
+        <v>306.2292466205049</v>
       </c>
       <c r="C13" t="n">
-        <v>36.27616607839227</v>
+        <v>134.2566834994209</v>
       </c>
       <c r="D13" t="n">
-        <v>36.27616607839227</v>
+        <v>134.2566834994209</v>
       </c>
       <c r="E13" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G13" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J13" t="n">
         <v>148.0721041840598</v>
@@ -5205,46 +5205,46 @@
         <v>216.556252028182</v>
       </c>
       <c r="L13" t="n">
-        <v>665.4738072482863</v>
+        <v>309.0520751284041</v>
       </c>
       <c r="M13" t="n">
-        <v>1114.391362468391</v>
+        <v>693.0767699469961</v>
       </c>
       <c r="N13" t="n">
-        <v>1211.390068560339</v>
+        <v>790.0754760389441</v>
       </c>
       <c r="O13" t="n">
-        <v>1390.366528636947</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P13" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T13" t="n">
-        <v>1704.026935512948</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="U13" t="n">
-        <v>1423.885233995453</v>
+        <v>1521.865751416482</v>
       </c>
       <c r="V13" t="n">
-        <v>1142.173766603482</v>
+        <v>1240.15428402451</v>
       </c>
       <c r="W13" t="n">
-        <v>867.3213627759948</v>
+        <v>965.3018801970234</v>
       </c>
       <c r="X13" t="n">
-        <v>624.7574662217999</v>
+        <v>722.7379836428285</v>
       </c>
       <c r="Y13" t="n">
-        <v>398.4146979115419</v>
+        <v>496.3952153325705</v>
       </c>
     </row>
     <row r="14">
@@ -5257,37 +5257,37 @@
         <v>463.1768960650922</v>
       </c>
       <c r="C14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872672</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J14" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250302</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303106</v>
       </c>
       <c r="M14" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1622.394930683605</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1264.905515809855</v>
       </c>
       <c r="W14" t="n">
-        <v>1700.082529233985</v>
+        <v>868.5141661102018</v>
       </c>
       <c r="X14" t="n">
-        <v>1288.362530401732</v>
+        <v>868.5141661102018</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.0252603566223</v>
+        <v>463.1768960650922</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F15" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J15" t="n">
-        <v>207.6760385564187</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>333.4446641276587</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>510.0835149583077</v>
+        <v>911.058455616965</v>
       </c>
       <c r="M15" t="n">
-        <v>719.3582134393226</v>
+        <v>1120.33315409798</v>
       </c>
       <c r="N15" t="n">
-        <v>936.5131952716388</v>
+        <v>1337.488135930296</v>
       </c>
       <c r="O15" t="n">
-        <v>1131.556862259125</v>
+        <v>1532.531802917783</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.47441747923</v>
+        <v>1685.929917764136</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919613</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.7919843041564</v>
+        <v>208.2487291994763</v>
       </c>
       <c r="C16" t="n">
-        <v>539.8194211830723</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="D16" t="n">
-        <v>539.8194211830723</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E16" t="n">
-        <v>373.6112153359259</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F16" t="n">
-        <v>201.7494411104863</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>297.4793645271714</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>746.3969197472759</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M16" t="n">
-        <v>844.4502673248951</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N16" t="n">
-        <v>941.448973416843</v>
+        <v>1465.456108010032</v>
       </c>
       <c r="O16" t="n">
-        <v>1390.366528636948</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5463,25 +5463,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S16" t="n">
-        <v>1788.488391209512</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1548.49755704111</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1268.355855523615</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V16" t="n">
-        <v>986.6443881316434</v>
+        <v>1142.173766603482</v>
       </c>
       <c r="W16" t="n">
-        <v>711.7919843041564</v>
+        <v>867.3213627759948</v>
       </c>
       <c r="X16" t="n">
-        <v>711.7919843041564</v>
+        <v>624.7574662217999</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.7919843041564</v>
+        <v>398.4146979115419</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27616607839227</v>
+        <v>1116.127394853993</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839227</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839227</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E17" t="n">
         <v>36.27616607839227</v>
@@ -5518,13 +5518,13 @@
         <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250304</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303107</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1607.214199529158</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V17" t="n">
-        <v>1249.724784655408</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W17" t="n">
-        <v>853.3334349557547</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="X17" t="n">
-        <v>441.613436123502</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.27616607839227</v>
+        <v>1535.975759145523</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>75.26691519968658</v>
       </c>
       <c r="J18" t="n">
-        <v>207.676038556419</v>
+        <v>433.5238427951066</v>
       </c>
       <c r="K18" t="n">
-        <v>333.444664127659</v>
+        <v>559.2924683663466</v>
       </c>
       <c r="L18" t="n">
-        <v>510.0835149583079</v>
+        <v>735.9313191969954</v>
       </c>
       <c r="M18" t="n">
-        <v>719.3582134393229</v>
+        <v>945.2060176780104</v>
       </c>
       <c r="N18" t="n">
-        <v>936.513195271639</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1131.556862259126</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.2487291994763</v>
+        <v>749.9572306755781</v>
       </c>
       <c r="C19" t="n">
-        <v>36.27616607839227</v>
+        <v>749.9572306755781</v>
       </c>
       <c r="D19" t="n">
-        <v>36.27616607839227</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="E19" t="n">
-        <v>36.27616607839227</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839227</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839227</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
         <v>36.27616607839227</v>
@@ -5676,49 +5676,49 @@
         <v>70.15038753583895</v>
       </c>
       <c r="K19" t="n">
-        <v>385.9171444939831</v>
+        <v>297.4793645271713</v>
       </c>
       <c r="L19" t="n">
-        <v>478.4129675942052</v>
+        <v>746.3969197472757</v>
       </c>
       <c r="M19" t="n">
-        <v>576.4663151718244</v>
+        <v>844.4502673248949</v>
       </c>
       <c r="N19" t="n">
-        <v>1025.383870391929</v>
+        <v>941.4489734168428</v>
       </c>
       <c r="O19" t="n">
-        <v>1474.301425612033</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P19" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1802.007452933977</v>
+        <v>1657.330917251774</v>
       </c>
       <c r="T19" t="n">
-        <v>1704.026935512948</v>
+        <v>1417.340083083371</v>
       </c>
       <c r="U19" t="n">
-        <v>1423.885233995453</v>
+        <v>1137.198381565875</v>
       </c>
       <c r="V19" t="n">
-        <v>1142.173766603482</v>
+        <v>1137.198381565875</v>
       </c>
       <c r="W19" t="n">
-        <v>867.3213627759948</v>
+        <v>862.3459777383885</v>
       </c>
       <c r="X19" t="n">
-        <v>624.7574662217999</v>
+        <v>862.3459777383885</v>
       </c>
       <c r="Y19" t="n">
-        <v>398.4146979115419</v>
+        <v>862.3459777383885</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1393.959939628083</v>
+        <v>331.8201686473807</v>
       </c>
       <c r="C20" t="n">
-        <v>967.0592096413836</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D20" t="n">
-        <v>543.7665888263839</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E20" t="n">
-        <v>543.7665888263839</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F20" t="n">
-        <v>118.6424070157841</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149081</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303102</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V20" t="n">
-        <v>1813.808303919614</v>
+        <v>1133.548788392143</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.808303919614</v>
+        <v>737.1574386924904</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.808303919614</v>
+        <v>737.1574386924904</v>
       </c>
       <c r="Y20" t="n">
-        <v>1813.808303919614</v>
+        <v>331.8201686473807</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C21" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D21" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489642</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>267.1899758967555</v>
+        <v>628.9641045014115</v>
       </c>
       <c r="L21" t="n">
-        <v>443.8288267274044</v>
+        <v>805.6029553320604</v>
       </c>
       <c r="M21" t="n">
-        <v>653.1035252084193</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N21" t="n">
-        <v>870.2585070407355</v>
+        <v>1232.032635645392</v>
       </c>
       <c r="O21" t="n">
-        <v>1065.302174028222</v>
+        <v>1427.076302632878</v>
       </c>
       <c r="P21" t="n">
-        <v>1514.219729248326</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.8832665156081</v>
+        <v>371.5655020727056</v>
       </c>
       <c r="C22" t="n">
-        <v>707.910703394524</v>
+        <v>199.5929389516216</v>
       </c>
       <c r="D22" t="n">
-        <v>544.5939305212947</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E22" t="n">
-        <v>378.3857246741483</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F22" t="n">
-        <v>206.5239504487087</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583895</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>385.9171444939831</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>834.8346997140875</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>932.8880472917067</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.886753383655</v>
+        <v>1107.808470031876</v>
       </c>
       <c r="O22" t="n">
-        <v>1238.993031259048</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P22" t="n">
         <v>1622.490343973492</v>
@@ -5943,19 +5943,19 @@
         <v>1813.808303919614</v>
       </c>
       <c r="U22" t="n">
-        <v>1813.808303919614</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V22" t="n">
-        <v>1813.808303919614</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W22" t="n">
-        <v>1538.955900092127</v>
+        <v>977.1027311826606</v>
       </c>
       <c r="X22" t="n">
-        <v>1296.392003537932</v>
+        <v>734.5388346284657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1070.049235227674</v>
+        <v>561.7314707847713</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2078.719171591466</v>
+        <v>2016.360222173687</v>
       </c>
       <c r="C23" t="n">
-        <v>2000.642074796589</v>
+        <v>1589.459492186987</v>
       </c>
       <c r="D23" t="n">
-        <v>1577.349453981589</v>
+        <v>1166.166871371988</v>
       </c>
       <c r="E23" t="n">
-        <v>1151.372514129446</v>
+        <v>740.1899315198451</v>
       </c>
       <c r="F23" t="n">
-        <v>726.2483323188463</v>
+        <v>315.0657497092453</v>
       </c>
       <c r="G23" t="n">
-        <v>324.1979444598476</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H23" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I23" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K23" t="n">
-        <v>513.2289698376785</v>
+        <v>513.2289698376791</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385798</v>
+        <v>829.2827739385799</v>
       </c>
       <c r="M23" t="n">
         <v>1186.099811633997</v>
@@ -6013,7 +6013,7 @@
         <v>2382.200022306146</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S23" t="n">
         <v>2436.208586465217</v>
@@ -6025,16 +6025,16 @@
         <v>2436.208586465217</v>
       </c>
       <c r="V23" t="n">
-        <v>2078.719171591466</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="W23" t="n">
-        <v>2078.719171591466</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="X23" t="n">
-        <v>2078.719171591466</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="Y23" t="n">
-        <v>2078.719171591466</v>
+        <v>2436.208586465217</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H24" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I24" t="n">
         <v>75.07978914432218</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>601.4610254965232</v>
+        <v>752.8268581914872</v>
       </c>
       <c r="C25" t="n">
-        <v>429.4884623754392</v>
+        <v>580.8542950704032</v>
       </c>
       <c r="D25" t="n">
-        <v>386.8605775027877</v>
+        <v>580.8542950704032</v>
       </c>
       <c r="E25" t="n">
-        <v>386.8605775027877</v>
+        <v>580.8542950704032</v>
       </c>
       <c r="F25" t="n">
-        <v>214.9988032773481</v>
+        <v>408.9925208449636</v>
       </c>
       <c r="G25" t="n">
-        <v>49.76845418497139</v>
+        <v>243.7621717525869</v>
       </c>
       <c r="H25" t="n">
-        <v>49.76845418497139</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J25" t="n">
-        <v>100.4757597880648</v>
+        <v>150.5499821493623</v>
       </c>
       <c r="K25" t="n">
-        <v>443.9044449166302</v>
+        <v>246.6960581639056</v>
       </c>
       <c r="L25" t="n">
-        <v>948.1869059976157</v>
+        <v>750.9785192448911</v>
       </c>
       <c r="M25" t="n">
-        <v>1083.562211904075</v>
+        <v>1299.889305614172</v>
       </c>
       <c r="N25" t="n">
-        <v>1615.028366416361</v>
+        <v>1831.355460126458</v>
       </c>
       <c r="O25" t="n">
-        <v>2112.677000012445</v>
+        <v>2329.004093722542</v>
       </c>
       <c r="P25" t="n">
-        <v>2428.541312378488</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R25" t="n">
-        <v>2488.422709248569</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.178859184712</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="T25" t="n">
-        <v>2097.225981304192</v>
+        <v>2248.591813999156</v>
       </c>
       <c r="U25" t="n">
-        <v>1817.0975302925</v>
+        <v>1968.463362987464</v>
       </c>
       <c r="V25" t="n">
-        <v>1535.386062900529</v>
+        <v>1686.751895595493</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.533659073042</v>
+        <v>1411.899491768006</v>
       </c>
       <c r="X25" t="n">
-        <v>1017.969762518847</v>
+        <v>1169.335595213811</v>
       </c>
       <c r="Y25" t="n">
-        <v>791.6269942085888</v>
+        <v>942.9928269035529</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1561.792602874699</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C26" t="n">
-        <v>1134.891872887999</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D26" t="n">
-        <v>1134.891872887999</v>
+        <v>900.8695758477136</v>
       </c>
       <c r="E26" t="n">
-        <v>749.3221262704474</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1979444598476</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="G26" t="n">
-        <v>324.1979444598476</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H26" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I26" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147725</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K26" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L26" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M26" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N26" t="n">
         <v>1549.440265901615</v>
@@ -6244,34 +6244,34 @@
         <v>1890.365373791551</v>
       </c>
       <c r="P26" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q26" t="n">
         <v>2382.200022306146</v>
       </c>
       <c r="R26" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S26" t="n">
         <v>2436.208586465217</v>
       </c>
       <c r="T26" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="U26" t="n">
-        <v>1967.129872919808</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="V26" t="n">
-        <v>1967.129872919808</v>
+        <v>2156.400196694523</v>
       </c>
       <c r="W26" t="n">
-        <v>1967.129872919808</v>
+        <v>2156.400196694523</v>
       </c>
       <c r="X26" t="n">
-        <v>1967.129872919808</v>
+        <v>2156.400196694523</v>
       </c>
       <c r="Y26" t="n">
-        <v>1561.792602874699</v>
+        <v>1751.062926649413</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H27" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I27" t="n">
         <v>75.07978914432218</v>
@@ -6326,7 +6326,7 @@
         <v>1620.486649455023</v>
       </c>
       <c r="Q27" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R27" t="n">
         <v>1817.643160879484</v>
@@ -6360,61 +6360,61 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.397105111855</v>
+        <v>601.4610254965237</v>
       </c>
       <c r="C28" t="n">
-        <v>590.424541990771</v>
+        <v>429.4884623754397</v>
       </c>
       <c r="D28" t="n">
-        <v>590.424541990771</v>
+        <v>429.4884623754397</v>
       </c>
       <c r="E28" t="n">
-        <v>590.424541990771</v>
+        <v>429.4884623754397</v>
       </c>
       <c r="F28" t="n">
-        <v>418.5627677653314</v>
+        <v>257.6266881500001</v>
       </c>
       <c r="G28" t="n">
-        <v>253.3324186729547</v>
+        <v>184.4371321323029</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6637407256232</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I28" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J28" t="n">
-        <v>178.3974764362857</v>
+        <v>150.5499821493623</v>
       </c>
       <c r="K28" t="n">
-        <v>521.826161564851</v>
+        <v>246.6960581639056</v>
       </c>
       <c r="L28" t="n">
-        <v>1026.108622645836</v>
+        <v>750.9785192448911</v>
       </c>
       <c r="M28" t="n">
-        <v>1233.792526504845</v>
+        <v>1299.889305614172</v>
       </c>
       <c r="N28" t="n">
-        <v>1367.225758175251</v>
+        <v>1831.355460126458</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.874391771335</v>
+        <v>2329.004093722542</v>
       </c>
       <c r="P28" t="n">
-        <v>2277.167815000589</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q28" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R28" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.178859184712</v>
+        <v>2336.178859184713</v>
       </c>
       <c r="T28" t="n">
-        <v>2097.225981304192</v>
+        <v>2097.225981304193</v>
       </c>
       <c r="U28" t="n">
         <v>1817.0975302925</v>
@@ -6423,13 +6423,13 @@
         <v>1535.386062900529</v>
       </c>
       <c r="W28" t="n">
-        <v>1421.469738688373</v>
+        <v>1260.533659073042</v>
       </c>
       <c r="X28" t="n">
-        <v>1178.905842134179</v>
+        <v>1017.969762518847</v>
       </c>
       <c r="Y28" t="n">
-        <v>952.5630738239206</v>
+        <v>791.6269942085893</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2153.113314508412</v>
+        <v>1011.853069782257</v>
       </c>
       <c r="C29" t="n">
-        <v>1726.212584521712</v>
+        <v>1011.853069782257</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.919963706712</v>
+        <v>588.560448967257</v>
       </c>
       <c r="E29" t="n">
-        <v>876.9430238545699</v>
+        <v>588.560448967257</v>
       </c>
       <c r="F29" t="n">
-        <v>451.8188420439701</v>
+        <v>588.560448967257</v>
       </c>
       <c r="G29" t="n">
-        <v>49.76845418497139</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H29" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I29" t="n">
         <v>102.0442972147728</v>
       </c>
       <c r="J29" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K29" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L29" t="n">
-        <v>829.2827739385799</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M29" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N29" t="n">
         <v>1549.440265901615</v>
@@ -6487,28 +6487,28 @@
         <v>2382.200022306146</v>
       </c>
       <c r="R29" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S29" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T29" t="n">
-        <v>2411.285129947875</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U29" t="n">
-        <v>2153.113314508412</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="V29" t="n">
-        <v>2153.113314508412</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="W29" t="n">
-        <v>2153.113314508412</v>
+        <v>1828.910338659619</v>
       </c>
       <c r="X29" t="n">
-        <v>2153.113314508412</v>
+        <v>1417.190339827366</v>
       </c>
       <c r="Y29" t="n">
-        <v>2153.113314508412</v>
+        <v>1011.853069782257</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H30" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I30" t="n">
         <v>75.07978914432218</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>957.2534058848993</v>
+        <v>991.7797360720069</v>
       </c>
       <c r="C31" t="n">
-        <v>785.2808427638153</v>
+        <v>819.8071729509229</v>
       </c>
       <c r="D31" t="n">
-        <v>621.964069890586</v>
+        <v>656.4904000776936</v>
       </c>
       <c r="E31" t="n">
-        <v>455.7558640434395</v>
+        <v>490.2821942305471</v>
       </c>
       <c r="F31" t="n">
-        <v>283.8940898179999</v>
+        <v>318.4204200051075</v>
       </c>
       <c r="G31" t="n">
-        <v>118.6637407256232</v>
+        <v>153.1900709127308</v>
       </c>
       <c r="H31" t="n">
         <v>118.6637407256232</v>
       </c>
       <c r="I31" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J31" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K31" t="n">
-        <v>521.826161564851</v>
+        <v>347.4753340534196</v>
       </c>
       <c r="L31" t="n">
-        <v>1026.108622645836</v>
+        <v>851.7577951344051</v>
       </c>
       <c r="M31" t="n">
-        <v>1161.483928552295</v>
+        <v>987.1331010408641</v>
       </c>
       <c r="N31" t="n">
-        <v>1367.225758175251</v>
+        <v>1518.599255553151</v>
       </c>
       <c r="O31" t="n">
-        <v>1864.874391771335</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P31" t="n">
-        <v>2277.167815000589</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q31" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R31" t="n">
-        <v>2488.422709248569</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.178859184712</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="T31" t="n">
-        <v>2097.225981304192</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="U31" t="n">
-        <v>2097.225981304192</v>
+        <v>2207.416240867984</v>
       </c>
       <c r="V31" t="n">
-        <v>1891.178443288905</v>
+        <v>1925.704773476012</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.326039461418</v>
+        <v>1650.852369648525</v>
       </c>
       <c r="X31" t="n">
-        <v>1373.762142907223</v>
+        <v>1408.288473094331</v>
       </c>
       <c r="Y31" t="n">
-        <v>1147.419374596965</v>
+        <v>1181.945704784073</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1393.733325235489</v>
+        <v>333.8328900512632</v>
       </c>
       <c r="C32" t="n">
-        <v>1324.162196662713</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="D32" t="n">
-        <v>900.8695758477136</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="E32" t="n">
-        <v>474.8926359955712</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="F32" t="n">
         <v>49.7684541849714</v>
@@ -6697,19 +6697,19 @@
         <v>49.7684541849714</v>
       </c>
       <c r="I32" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K32" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385799</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M32" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N32" t="n">
         <v>1549.440265901615</v>
@@ -6718,7 +6718,7 @@
         <v>1890.365373791551</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q32" t="n">
         <v>2382.200022306146</v>
@@ -6733,19 +6733,19 @@
         <v>2225.301688359272</v>
       </c>
       <c r="U32" t="n">
-        <v>2225.301688359272</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="V32" t="n">
-        <v>2225.301688359272</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="W32" t="n">
-        <v>2225.301688359272</v>
+        <v>1570.738523220156</v>
       </c>
       <c r="X32" t="n">
-        <v>1813.58168952702</v>
+        <v>1159.018524387903</v>
       </c>
       <c r="Y32" t="n">
-        <v>1813.58168952702</v>
+        <v>753.6812543427933</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>49.7684541849714</v>
       </c>
       <c r="I33" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947443</v>
       </c>
       <c r="J33" t="n">
         <v>183.4593521567748</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.922083832231</v>
+        <v>601.4610254965237</v>
       </c>
       <c r="C34" t="n">
-        <v>919.9495207111468</v>
+        <v>429.4884623754397</v>
       </c>
       <c r="D34" t="n">
-        <v>756.6327478379175</v>
+        <v>429.4884623754397</v>
       </c>
       <c r="E34" t="n">
-        <v>590.424541990771</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F34" t="n">
-        <v>418.5627677653314</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G34" t="n">
-        <v>253.3324186729547</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6637407256232</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I34" t="n">
         <v>49.7684541849714</v>
@@ -6876,7 +6876,7 @@
         <v>2278.929871361245</v>
       </c>
       <c r="P34" t="n">
-        <v>2378.467090017192</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q34" t="n">
         <v>2488.42270924857</v>
@@ -6888,22 +6888,22 @@
         <v>2336.178859184713</v>
       </c>
       <c r="T34" t="n">
-        <v>2336.178859184713</v>
+        <v>2097.225981304193</v>
       </c>
       <c r="U34" t="n">
-        <v>2307.558588628207</v>
+        <v>1817.0975302925</v>
       </c>
       <c r="V34" t="n">
-        <v>2025.847121236236</v>
+        <v>1535.386062900529</v>
       </c>
       <c r="W34" t="n">
-        <v>1750.994717408749</v>
+        <v>1260.533659073042</v>
       </c>
       <c r="X34" t="n">
-        <v>1508.430820854554</v>
+        <v>1017.969762518847</v>
       </c>
       <c r="Y34" t="n">
-        <v>1282.088052544296</v>
+        <v>791.6269942085893</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1325.938744838813</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="C35" t="n">
-        <v>899.0380148521135</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="D35" t="n">
-        <v>475.7453940371138</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="E35" t="n">
-        <v>49.7684541849714</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="F35" t="n">
-        <v>49.7684541849714</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G35" t="n">
-        <v>49.7684541849714</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H35" t="n">
         <v>49.7684541849714</v>
       </c>
       <c r="I35" t="n">
-        <v>102.0442972147729</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486625</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K35" t="n">
-        <v>513.2289698376792</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L35" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M35" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N35" t="n">
         <v>1549.440265901615</v>
@@ -6967,22 +6967,22 @@
         <v>2436.208586465217</v>
       </c>
       <c r="T35" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="U35" t="n">
-        <v>2142.178458829997</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="V35" t="n">
-        <v>2142.178458829997</v>
+        <v>1820.547356152003</v>
       </c>
       <c r="W35" t="n">
-        <v>1745.787109130343</v>
+        <v>1424.15600645235</v>
       </c>
       <c r="X35" t="n">
-        <v>1745.787109130343</v>
+        <v>1424.15600645235</v>
       </c>
       <c r="Y35" t="n">
-        <v>1745.787109130343</v>
+        <v>1018.81873640724</v>
       </c>
     </row>
     <row r="36">
@@ -7028,16 +7028,16 @@
         <v>859.2274224705423</v>
       </c>
       <c r="N36" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P36" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q36" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541192</v>
       </c>
       <c r="R36" t="n">
         <v>1817.643160879484</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.4354119551169</v>
+        <v>600.5830081276299</v>
       </c>
       <c r="C37" t="n">
-        <v>703.4628488340329</v>
+        <v>428.6104450065459</v>
       </c>
       <c r="D37" t="n">
-        <v>540.1460759608036</v>
+        <v>428.6104450065459</v>
       </c>
       <c r="E37" t="n">
-        <v>373.9378701136571</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F37" t="n">
-        <v>373.9378701136571</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7075210212804</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H37" t="n">
-        <v>74.03884307394893</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I37" t="n">
         <v>49.7684541849714</v>
       </c>
       <c r="J37" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K37" t="n">
-        <v>274.543552450829</v>
+        <v>196.6218358026081</v>
       </c>
       <c r="L37" t="n">
-        <v>778.8260135318145</v>
+        <v>700.9042968835936</v>
       </c>
       <c r="M37" t="n">
-        <v>1299.889305614172</v>
+        <v>1249.815083252875</v>
       </c>
       <c r="N37" t="n">
-        <v>1831.355460126458</v>
+        <v>1781.281237765161</v>
       </c>
       <c r="O37" t="n">
-        <v>2329.004093722542</v>
+        <v>2278.929871361245</v>
       </c>
       <c r="P37" t="n">
         <v>2428.541312378489</v>
@@ -7134,13 +7134,13 @@
         <v>1534.508045531635</v>
       </c>
       <c r="W37" t="n">
-        <v>1534.508045531635</v>
+        <v>1259.655641704148</v>
       </c>
       <c r="X37" t="n">
-        <v>1291.944148977441</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y37" t="n">
-        <v>1065.601380667183</v>
+        <v>790.7489768396955</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1324.162196662713</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C38" t="n">
         <v>1324.162196662713</v>
@@ -7162,13 +7162,13 @@
         <v>474.8926359955712</v>
       </c>
       <c r="F38" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="G38" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H38" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I38" t="n">
         <v>102.0442972147725</v>
@@ -7177,7 +7177,7 @@
         <v>263.3013860486622</v>
       </c>
       <c r="K38" t="n">
-        <v>513.2289698376788</v>
+        <v>513.2289698376787</v>
       </c>
       <c r="L38" t="n">
         <v>829.2827739385798</v>
@@ -7195,31 +7195,31 @@
         <v>2175.730653154894</v>
       </c>
       <c r="Q38" t="n">
-        <v>2382.200022306145</v>
+        <v>2382.200022306146</v>
       </c>
       <c r="R38" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S38" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T38" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="U38" t="n">
-        <v>2488.422709248569</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="V38" t="n">
-        <v>2488.422709248569</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="W38" t="n">
-        <v>2155.730559786496</v>
+        <v>2156.400196694523</v>
       </c>
       <c r="X38" t="n">
-        <v>1744.010560954243</v>
+        <v>2156.400196694523</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.010560954243</v>
+        <v>1751.062926649413</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H39" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I39" t="n">
         <v>75.07978914432218</v>
@@ -7256,25 +7256,25 @@
         <v>168.0655064016225</v>
       </c>
       <c r="K39" t="n">
-        <v>355.0869125144397</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L39" t="n">
-        <v>593.3887605094956</v>
+        <v>577.9949147543433</v>
       </c>
       <c r="M39" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705423</v>
       </c>
       <c r="N39" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O39" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P39" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q39" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541192</v>
       </c>
       <c r="R39" t="n">
         <v>1817.643160879484</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>888.3581193442475</v>
+        <v>716.3855562231635</v>
       </c>
       <c r="C40" t="n">
         <v>716.3855562231635</v>
@@ -7323,25 +7323,25 @@
         <v>214.9988032773481</v>
       </c>
       <c r="G40" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H40" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I40" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J40" t="n">
         <v>178.3974764362857</v>
       </c>
       <c r="K40" t="n">
-        <v>471.711454377171</v>
+        <v>471.7114543771714</v>
       </c>
       <c r="L40" t="n">
-        <v>599.6050218669915</v>
+        <v>599.6050218669919</v>
       </c>
       <c r="M40" t="n">
-        <v>1148.515808236272</v>
+        <v>1148.515808236273</v>
       </c>
       <c r="N40" t="n">
         <v>1679.981962748559</v>
@@ -7350,34 +7350,34 @@
         <v>2177.630596344643</v>
       </c>
       <c r="P40" t="n">
-        <v>2277.167815000589</v>
+        <v>2277.16781500059</v>
       </c>
       <c r="Q40" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R40" t="n">
         <v>2487.544691879676</v>
       </c>
       <c r="S40" t="n">
-        <v>2335.300841815818</v>
+        <v>2451.103389911352</v>
       </c>
       <c r="T40" t="n">
-        <v>2096.347963935299</v>
+        <v>2212.150512030832</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.219512923606</v>
+        <v>1932.02206101914</v>
       </c>
       <c r="V40" t="n">
-        <v>1534.508045531635</v>
+        <v>1650.310593627169</v>
       </c>
       <c r="W40" t="n">
-        <v>1534.508045531635</v>
+        <v>1375.458189799682</v>
       </c>
       <c r="X40" t="n">
-        <v>1304.866856366571</v>
+        <v>1132.894293245487</v>
       </c>
       <c r="Y40" t="n">
-        <v>1078.524088056313</v>
+        <v>906.5515249352291</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2153.113314508412</v>
+        <v>2016.360222173688</v>
       </c>
       <c r="C41" t="n">
-        <v>1726.212584521712</v>
+        <v>1589.459492186988</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.919963706712</v>
+        <v>1166.166871371988</v>
       </c>
       <c r="E41" t="n">
-        <v>876.9430238545699</v>
+        <v>740.1899315198456</v>
       </c>
       <c r="F41" t="n">
-        <v>451.8188420439701</v>
+        <v>315.0657497092458</v>
       </c>
       <c r="G41" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H41" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I41" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J41" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486625</v>
       </c>
       <c r="K41" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376792</v>
       </c>
       <c r="L41" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385802</v>
       </c>
       <c r="M41" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N41" t="n">
         <v>1549.440265901615</v>
@@ -7429,34 +7429,34 @@
         <v>1890.365373791551</v>
       </c>
       <c r="P41" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q41" t="n">
         <v>2382.200022306146</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S41" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="T41" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="U41" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="V41" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="W41" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="X41" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="Y41" t="n">
-        <v>2225.301688359272</v>
+        <v>2436.208586465218</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H42" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I42" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947392</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567743</v>
       </c>
       <c r="K42" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144393</v>
       </c>
       <c r="L42" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094951</v>
       </c>
       <c r="M42" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256942</v>
       </c>
       <c r="N42" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O42" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P42" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q42" t="n">
-        <v>1751.169046541192</v>
+        <v>1766.562892296344</v>
       </c>
       <c r="R42" t="n">
         <v>1817.643160879484</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>880.711459139322</v>
+        <v>600.5830081276304</v>
       </c>
       <c r="C43" t="n">
-        <v>708.7388960182379</v>
+        <v>600.5830081276304</v>
       </c>
       <c r="D43" t="n">
-        <v>545.4221231450086</v>
+        <v>600.5830081276304</v>
       </c>
       <c r="E43" t="n">
-        <v>521.5292554501192</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F43" t="n">
-        <v>349.6674812246796</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G43" t="n">
-        <v>184.4371321323029</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H43" t="n">
-        <v>49.76845418497139</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I43" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J43" t="n">
-        <v>150.5499821493619</v>
+        <v>100.4757597880649</v>
       </c>
       <c r="K43" t="n">
-        <v>246.6960581639051</v>
+        <v>196.6218358026082</v>
       </c>
       <c r="L43" t="n">
-        <v>750.9785192448907</v>
+        <v>438.2223146715837</v>
       </c>
       <c r="M43" t="n">
-        <v>1299.889305614171</v>
+        <v>987.1331010408645</v>
       </c>
       <c r="N43" t="n">
-        <v>1831.355460126458</v>
+        <v>1518.599255553151</v>
       </c>
       <c r="O43" t="n">
-        <v>2329.004093722542</v>
+        <v>2016.247889149235</v>
       </c>
       <c r="P43" t="n">
-        <v>2428.541312378488</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879677</v>
       </c>
       <c r="S43" t="n">
-        <v>2335.300841815818</v>
+        <v>2335.300841815819</v>
       </c>
       <c r="T43" t="n">
-        <v>2096.347963935299</v>
+        <v>2096.3479639353</v>
       </c>
       <c r="U43" t="n">
-        <v>2096.347963935299</v>
+        <v>1816.219512923607</v>
       </c>
       <c r="V43" t="n">
-        <v>1814.636496543327</v>
+        <v>1534.508045531636</v>
       </c>
       <c r="W43" t="n">
-        <v>1539.78409271584</v>
+        <v>1259.655641704149</v>
       </c>
       <c r="X43" t="n">
-        <v>1297.220196161646</v>
+        <v>1017.091745149954</v>
       </c>
       <c r="Y43" t="n">
-        <v>1070.877427851388</v>
+        <v>790.748976839696</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2230.250893809106</v>
+        <v>1751.062926649413</v>
       </c>
       <c r="C44" t="n">
-        <v>1803.350163822406</v>
+        <v>1324.162196662713</v>
       </c>
       <c r="D44" t="n">
-        <v>1577.349453981589</v>
+        <v>900.8695758477136</v>
       </c>
       <c r="E44" t="n">
-        <v>1151.372514129446</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F44" t="n">
-        <v>726.2483323188463</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="G44" t="n">
-        <v>324.1979444598476</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H44" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I44" t="n">
-        <v>102.0442972147728</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J44" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486625</v>
       </c>
       <c r="K44" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376792</v>
       </c>
       <c r="L44" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385802</v>
       </c>
       <c r="M44" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N44" t="n">
         <v>1549.440265901615</v>
@@ -7666,34 +7666,34 @@
         <v>1890.365373791551</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q44" t="n">
         <v>2382.200022306146</v>
       </c>
       <c r="R44" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S44" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="T44" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="U44" t="n">
-        <v>2230.250893809106</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="V44" t="n">
-        <v>2230.250893809106</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="W44" t="n">
-        <v>2230.250893809106</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="X44" t="n">
-        <v>2230.250893809106</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="Y44" t="n">
-        <v>2230.250893809106</v>
+        <v>2170.911290940943</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I45" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432219</v>
       </c>
       <c r="J45" t="n">
         <v>168.0655064016225</v>
@@ -7733,22 +7733,22 @@
         <v>339.6930667592875</v>
       </c>
       <c r="L45" t="n">
-        <v>593.3887605094956</v>
+        <v>577.9949147543434</v>
       </c>
       <c r="M45" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705425</v>
       </c>
       <c r="N45" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714237</v>
       </c>
       <c r="P45" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541193</v>
       </c>
       <c r="R45" t="n">
         <v>1817.643160879484</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.8268581914867</v>
+        <v>601.4610254965241</v>
       </c>
       <c r="C46" t="n">
-        <v>752.8268581914867</v>
+        <v>429.4884623754401</v>
       </c>
       <c r="D46" t="n">
-        <v>752.8268581914867</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="E46" t="n">
-        <v>590.424541990771</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F46" t="n">
-        <v>418.5627677653314</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G46" t="n">
-        <v>253.3324186729547</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H46" t="n">
-        <v>118.6637407256232</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I46" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J46" t="n">
         <v>178.3974764362857</v>
       </c>
       <c r="K46" t="n">
-        <v>521.826161564851</v>
+        <v>274.543552450829</v>
       </c>
       <c r="L46" t="n">
-        <v>1026.108622645836</v>
+        <v>402.4371199406496</v>
       </c>
       <c r="M46" t="n">
-        <v>1575.019409015117</v>
+        <v>951.3479063099303</v>
       </c>
       <c r="N46" t="n">
-        <v>1708.452640685524</v>
+        <v>1482.814060822217</v>
       </c>
       <c r="O46" t="n">
-        <v>1864.874391771335</v>
+        <v>1980.462694418301</v>
       </c>
       <c r="P46" t="n">
-        <v>2277.167815000589</v>
+        <v>2277.16781500059</v>
       </c>
       <c r="Q46" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S46" t="n">
-        <v>2487.544691879676</v>
+        <v>2336.178859184713</v>
       </c>
       <c r="T46" t="n">
-        <v>2248.591813999156</v>
+        <v>2097.225981304193</v>
       </c>
       <c r="U46" t="n">
-        <v>1968.463362987463</v>
+        <v>1817.097530292501</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.751895595492</v>
+        <v>1535.38606290053</v>
       </c>
       <c r="W46" t="n">
-        <v>1411.899491768005</v>
+        <v>1260.533659073043</v>
       </c>
       <c r="X46" t="n">
-        <v>1169.33559521381</v>
+        <v>1017.969762518848</v>
       </c>
       <c r="Y46" t="n">
-        <v>942.9928269035524</v>
+        <v>791.6269942085897</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>90.61817583365213</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>298.5044852260119</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362447</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479648</v>
+        <v>288.8599467080534</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>93.61952752957991</v>
+        <v>366.2873004017982</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>66.92392750596272</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.8960973939085</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>298.504485226012</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>160.4493223709195</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>6.85194983401118</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>66.92392750596308</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>298.5044852260119</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541828</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>160.4493223709194</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
-        <v>78.23011133365951</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>70.37539003541897</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>298.5044852260119</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.92392750596328</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>360.0219516362447</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>124.0536869222921</v>
+        <v>45.34488222711981</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>50.58002258716915</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>218.5122158687843</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>15.54933914661851</v>
       </c>
       <c r="R27" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>50.58002258716915</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>73.03898783085771</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>152.3772709604156</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>73.03898783085788</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.54933914661844</v>
       </c>
       <c r="J33" t="n">
-        <v>15.54933914661845</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>50.58002258716856</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.58002258716853</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>15.54933914661848</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>15.54933914661856</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>389.5838244200995</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>50.58002258716856</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>15.54933914661845</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>15.54933914661856</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>199.159496895295</v>
+        <v>199.1594968952954</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.54933914661791</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>15.54933914661856</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.58002258716871</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>114.8554660395505</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11235,7 +11235,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>15.54933914661842</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.5493391466181</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>36.84388059891984</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>199.1594968952955</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>300.5071528020621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>155.5507158500184</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
@@ -23317,7 +23317,7 @@
         <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23424,7 +23424,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>142.9841362943655</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -23436,7 +23436,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>128.9073711041198</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>130.0431601435348</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>279.8389192638834</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
         <v>135.4602252892499</v>
@@ -23703,7 +23703,7 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>129.845899218161</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>128.9073711041198</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>194.355871259459</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>51.1048256260454</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>76.99944943276275</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578065</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>140.5902135799004</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>130.0431601435344</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>317.0234515464804</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458684</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.7334610444097</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
         <v>75.43872475250879</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578065</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
         <v>154.9126128011615</v>
@@ -24183,10 +24183,10 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>53.00005042189798</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>345.3353968599042</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>135.3855614113775</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>255.5900972850689</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>119.481999120572</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3219911678582</v>
+        <v>9.474544451164178</v>
       </c>
       <c r="I25" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>40.00312130224495</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>398.0298839804087</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>76.90421485202575</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>91.12038514393277</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>159.3267188191783</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>136.3110045180734</v>
       </c>
       <c r="H29" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>132.4316256171983</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.3219911678582</v>
+        <v>99.14092428262165</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>74.90729008291655</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>353.7563053997845</v>
+        <v>141.407931179204</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.0298839804087</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>122.3445177647495</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>248.9930986506355</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>126.0051806011046</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U35" t="n">
-        <v>173.2981000510859</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>123.2137549599544</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I37" t="n">
-        <v>44.17864867515755</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>63.06220823520403</v>
+        <v>371.0072276147381</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>114.6445226145783</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>12.79348031523966</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>344.1833905362633</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>135.3855614113771</v>
       </c>
       <c r="H41" t="n">
         <v>271.6851953721275</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U41" t="n">
         <v>255.5900972850689</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>140.8921847707344</v>
+        <v>154.4892423131842</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>195.3189918644406</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>138.6395747756269</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>119.4819991205711</v>
       </c>
       <c r="E46" t="n">
-        <v>3.767830749966407</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>68.20633367524528</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.8692371952046827</v>
       </c>
       <c r="S46" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>377568.6365281317</v>
+        <v>377568.6365281318</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>377568.6365281317</v>
+        <v>377568.6365281319</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456629.1581479789</v>
+        <v>456629.1581479792</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>456629.1581479791</v>
+        <v>456629.1581479792</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>329910.3965622638</v>
       </c>
       <c r="C2" t="n">
-        <v>329910.3965622638</v>
+        <v>329910.3965622639</v>
       </c>
       <c r="D2" t="n">
-        <v>329910.3965622638</v>
+        <v>329910.396562264</v>
       </c>
       <c r="E2" t="n">
         <v>176834.6750523113</v>
       </c>
       <c r="F2" t="n">
-        <v>176834.6750523113</v>
+        <v>176834.6750523112</v>
       </c>
       <c r="G2" t="n">
         <v>176834.6750523112</v>
       </c>
       <c r="H2" t="n">
-        <v>176834.6750523112</v>
+        <v>176834.6750523113</v>
       </c>
       <c r="I2" t="n">
+        <v>217122.3802712468</v>
+      </c>
+      <c r="J2" t="n">
         <v>217122.3802712467</v>
-      </c>
-      <c r="J2" t="n">
-        <v>217122.3802712468</v>
       </c>
       <c r="K2" t="n">
         <v>217122.3802712468</v>
@@ -26349,13 +26349,13 @@
         <v>217122.3802712467</v>
       </c>
       <c r="N2" t="n">
-        <v>217122.3802712467</v>
+        <v>217122.3802712468</v>
       </c>
       <c r="O2" t="n">
         <v>217122.3802712468</v>
       </c>
       <c r="P2" t="n">
-        <v>217122.3802712468</v>
+        <v>217122.3802712469</v>
       </c>
     </row>
     <row r="3">
@@ -26432,16 +26432,16 @@
         <v>16604.03394553452</v>
       </c>
       <c r="G4" t="n">
-        <v>16604.03394553453</v>
+        <v>16604.03394553452</v>
       </c>
       <c r="H4" t="n">
-        <v>16604.03394553452</v>
+        <v>16604.03394553454</v>
       </c>
       <c r="I4" t="n">
-        <v>13440.66149177729</v>
+        <v>13440.6614917773</v>
       </c>
       <c r="J4" t="n">
-        <v>13440.66149177729</v>
+        <v>13440.6614917773</v>
       </c>
       <c r="K4" t="n">
         <v>13440.66149177729</v>
@@ -26450,10 +26450,10 @@
         <v>13440.66149177729</v>
       </c>
       <c r="M4" t="n">
+        <v>13440.66149177729</v>
+      </c>
+      <c r="N4" t="n">
         <v>13440.6614917773</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13440.66149177729</v>
       </c>
       <c r="O4" t="n">
         <v>13440.66149177729</v>
@@ -26490,13 +26490,13 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="J5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="K5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="L5" t="n">
         <v>50110.82600576629</v>
@@ -26505,13 +26505,13 @@
         <v>50110.82600576629</v>
       </c>
       <c r="N5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.8260057663</v>
       </c>
       <c r="P5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.8260057663</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21547.40305861301</v>
+        <v>-21569.11670010941</v>
       </c>
       <c r="C6" t="n">
-        <v>-21547.40305861301</v>
+        <v>-21569.11670010936</v>
       </c>
       <c r="D6" t="n">
-        <v>-21547.40305861301</v>
+        <v>-21569.11670010924</v>
       </c>
       <c r="E6" t="n">
-        <v>-357772.3095487565</v>
+        <v>-358459.5698055134</v>
       </c>
       <c r="F6" t="n">
-        <v>123281.3402937352</v>
+        <v>122594.0800369781</v>
       </c>
       <c r="G6" t="n">
-        <v>123281.3402937352</v>
+        <v>122594.0800369781</v>
       </c>
       <c r="H6" t="n">
-        <v>123281.3402937351</v>
+        <v>122594.0800369782</v>
       </c>
       <c r="I6" t="n">
-        <v>8330.978704086679</v>
+        <v>7818.882383064258</v>
       </c>
       <c r="J6" t="n">
-        <v>153570.8927737032</v>
+        <v>153058.7964526807</v>
       </c>
       <c r="K6" t="n">
-        <v>153570.8927737032</v>
+        <v>153058.7964526807</v>
       </c>
       <c r="L6" t="n">
-        <v>153570.8927737032</v>
+        <v>153058.7964526807</v>
       </c>
       <c r="M6" t="n">
-        <v>40568.82163120731</v>
+        <v>40056.72531018483</v>
       </c>
       <c r="N6" t="n">
-        <v>153570.8927737032</v>
+        <v>153058.7964526808</v>
       </c>
       <c r="O6" t="n">
-        <v>153570.8927737032</v>
+        <v>153058.7964526807</v>
       </c>
       <c r="P6" t="n">
-        <v>153570.8927737032</v>
+        <v>153058.7964526808</v>
       </c>
     </row>
   </sheetData>
@@ -26776,10 +26776,10 @@
         <v>563.6147167517445</v>
       </c>
       <c r="O3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517446</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517446</v>
       </c>
     </row>
     <row r="4">
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>453.4520759799035</v>
+      </c>
+      <c r="F4" t="n">
         <v>453.4520759799034</v>
-      </c>
-      <c r="F4" t="n">
-        <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="J4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="K4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="L4" t="n">
         <v>622.1056773121425</v>
@@ -26825,13 +26825,13 @@
         <v>622.1056773121425</v>
       </c>
       <c r="N4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121426</v>
       </c>
       <c r="P4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121426</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133.3663409047985</v>
+        <v>133.3663409047984</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985683</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
         <v>146.801178249406</v>
@@ -32481,7 +32481,7 @@
         <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530052</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
         <v>308.6242947670762</v>
@@ -32490,7 +32490,7 @@
         <v>291.425169993898</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301935</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7818464210729</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050273</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651291</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H21" t="n">
         <v>8.937801166179012</v>
@@ -32551,7 +32551,7 @@
         <v>31.86273349432572</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659495</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32566,22 +32566,22 @@
         <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600875</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587201</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.1315917985803</v>
+        <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027707</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654181</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
         <v>0.06088420412928484</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371156</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677269</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461799</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.85314129445407</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
         <v>90.14056136596669</v>
@@ -32648,7 +32648,7 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701256</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q22" t="n">
         <v>64.96750475288884</v>
@@ -32663,7 +32663,7 @@
         <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838817</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>23.20449936857809</v>
       </c>
       <c r="I41" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224779</v>
       </c>
       <c r="J41" t="n">
-        <v>192.3059078026467</v>
+        <v>192.3059078026468</v>
       </c>
       <c r="K41" t="n">
         <v>288.2167056321999</v>
       </c>
       <c r="L41" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012099</v>
       </c>
       <c r="M41" t="n">
-        <v>397.8525130968231</v>
+        <v>397.8525130968232</v>
       </c>
       <c r="N41" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007263</v>
       </c>
       <c r="O41" t="n">
-        <v>381.7597552044442</v>
+        <v>381.7597552044443</v>
       </c>
       <c r="P41" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429018</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6795929391957</v>
+        <v>244.6795929391958</v>
       </c>
       <c r="R41" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S41" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007189</v>
       </c>
       <c r="T41" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927684</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1812630244829729</v>
+        <v>0.181263024482973</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.212303353013186</v>
+        <v>1.212303353013187</v>
       </c>
       <c r="H42" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I42" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944524</v>
       </c>
       <c r="J42" t="n">
-        <v>114.5360812598993</v>
+        <v>114.5360812598994</v>
       </c>
       <c r="K42" t="n">
         <v>195.7604059117828</v>
@@ -34219,31 +34219,31 @@
         <v>263.2240240829728</v>
       </c>
       <c r="M42" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297008</v>
       </c>
       <c r="N42" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628463</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776593</v>
       </c>
       <c r="P42" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258251</v>
       </c>
       <c r="Q42" t="n">
         <v>154.7494595881394</v>
       </c>
       <c r="R42" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620472</v>
       </c>
       <c r="S42" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022299</v>
       </c>
       <c r="T42" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838237</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034125</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H43" t="n">
-        <v>9.036314639068959</v>
+        <v>9.03631463906896</v>
       </c>
       <c r="I43" t="n">
-        <v>30.56454890188149</v>
+        <v>30.5645489018815</v>
       </c>
       <c r="J43" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308717</v>
       </c>
       <c r="K43" t="n">
         <v>118.0819029522507</v>
       </c>
       <c r="L43" t="n">
-        <v>151.1041816025906</v>
+        <v>151.1041816025907</v>
       </c>
       <c r="M43" t="n">
-        <v>159.3181731303332</v>
+        <v>159.3181731303333</v>
       </c>
       <c r="N43" t="n">
         <v>155.52994306692</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6570756730512</v>
+        <v>143.6570756730513</v>
       </c>
       <c r="P43" t="n">
         <v>122.9234457650034</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951344</v>
       </c>
       <c r="R43" t="n">
-        <v>45.69898998449389</v>
+        <v>45.6989899844939</v>
       </c>
       <c r="S43" t="n">
         <v>17.7122854428376</v>
       </c>
       <c r="T43" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644588</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312248</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,43 +34365,43 @@
         <v>23.20449936857809</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224779</v>
       </c>
       <c r="J44" t="n">
-        <v>192.3059078026467</v>
+        <v>192.3059078026468</v>
       </c>
       <c r="K44" t="n">
         <v>288.2167056321999</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012099</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8525130968231</v>
+        <v>397.8525130968232</v>
       </c>
       <c r="N44" t="n">
         <v>404.2901827007262</v>
       </c>
       <c r="O44" t="n">
-        <v>381.7597552044442</v>
+        <v>381.7597552044443</v>
       </c>
       <c r="P44" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429018</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6795929391957</v>
+        <v>244.6795929391958</v>
       </c>
       <c r="R44" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007189</v>
       </c>
       <c r="T44" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927684</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1812630244829729</v>
+        <v>0.181263024482973</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.212303353013186</v>
+        <v>1.212303353013187</v>
       </c>
       <c r="H45" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944524</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5360812598993</v>
+        <v>114.5360812598994</v>
       </c>
       <c r="K45" t="n">
         <v>195.7604059117828</v>
@@ -34456,31 +34456,31 @@
         <v>263.2240240829728</v>
       </c>
       <c r="M45" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297008</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628463</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776593</v>
       </c>
       <c r="P45" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258251</v>
       </c>
       <c r="Q45" t="n">
         <v>154.7494595881394</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620472</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022299</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838237</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034125</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.036314639068959</v>
+        <v>9.03631463906896</v>
       </c>
       <c r="I46" t="n">
-        <v>30.56454890188149</v>
+        <v>30.5645489018815</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308717</v>
       </c>
       <c r="K46" t="n">
         <v>118.0819029522507</v>
       </c>
       <c r="L46" t="n">
-        <v>151.1041816025906</v>
+        <v>151.1041816025907</v>
       </c>
       <c r="M46" t="n">
-        <v>159.3181731303332</v>
+        <v>159.3181731303333</v>
       </c>
       <c r="N46" t="n">
         <v>155.52994306692</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6570756730512</v>
+        <v>143.6570756730513</v>
       </c>
       <c r="P46" t="n">
         <v>122.9234457650034</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951344</v>
       </c>
       <c r="R46" t="n">
-        <v>45.69898998449389</v>
+        <v>45.6989899844939</v>
       </c>
       <c r="S46" t="n">
         <v>17.7122854428376</v>
       </c>
       <c r="T46" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644588</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312248</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>157.4408375769138</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
         <v>127.0390157285253</v>
@@ -35506,10 +35506,10 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>453.4520759799034</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35573,22 +35573,22 @@
         <v>69.17590691325469</v>
       </c>
       <c r="L13" t="n">
-        <v>453.4520759799034</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799034</v>
+        <v>387.903732139992</v>
       </c>
       <c r="N13" t="n">
         <v>97.97849100196758</v>
       </c>
       <c r="O13" t="n">
-        <v>180.7843031076853</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P13" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>133.7465892492243</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471201</v>
+        <v>355.3191790410286</v>
       </c>
       <c r="M15" t="n">
         <v>211.3885843242576</v>
@@ -35743,13 +35743,13 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
-        <v>453.4520759799035</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
         <v>95.38455350960186</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>229.6252292841742</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M16" t="n">
-        <v>99.04378543193859</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196758</v>
+        <v>104.8304408359788</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.3479419881039</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J18" t="n">
-        <v>133.7465892492247</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285252</v>
@@ -35980,10 +35980,10 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P18" t="n">
-        <v>453.4520759799034</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960184</v>
+        <v>165.7599435450201</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36044,25 +36044,25 @@
         <v>34.2163853105522</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597416</v>
+        <v>229.6252292841741</v>
       </c>
       <c r="L19" t="n">
-        <v>93.43012434365869</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
         <v>99.04378543193857</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196757</v>
       </c>
       <c r="O19" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="P19" t="n">
-        <v>149.6857761226856</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589333</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
-        <v>117.3812187638194</v>
+        <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213352</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
         <v>234.6383920255356</v>
@@ -36132,19 +36132,19 @@
         <v>266.2786873535734</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326301</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
         <v>254.0342106378739</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199622</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332704</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326162</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285252</v>
+        <v>197.4144057639442</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36211,16 +36211,16 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.348466497289</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378653</v>
       </c>
       <c r="P21" t="n">
-        <v>453.4520759799034</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.3084810155651</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.2163853105522</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
         <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>99.04378543193857</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N22" t="n">
-        <v>97.97849100196757</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O22" t="n">
-        <v>211.2184625003975</v>
+        <v>132.5096578052252</v>
       </c>
       <c r="P22" t="n">
         <v>387.3710229438823</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>51.21950060918529</v>
+        <v>101.7995231963544</v>
       </c>
       <c r="K25" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953869</v>
       </c>
       <c r="L25" t="n">
         <v>509.3762233141268</v>
       </c>
       <c r="M25" t="n">
-        <v>136.7427332388474</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N25" t="n">
         <v>536.8344995073602</v>
@@ -36533,7 +36533,7 @@
         <v>502.6753874707917</v>
       </c>
       <c r="P25" t="n">
-        <v>319.0548609758011</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q25" t="n">
         <v>60.48625946472846</v>
@@ -36618,7 +36618,7 @@
         <v>208.5549183345977</v>
       </c>
       <c r="R26" t="n">
-        <v>107.2956433761853</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>209.7259280209964</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.0024212991609</v>
+        <v>147.5517604457794</v>
       </c>
       <c r="R27" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206056</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9283053043579</v>
+        <v>101.7995231963544</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953869</v>
       </c>
       <c r="L28" t="n">
         <v>509.3762233141268</v>
       </c>
       <c r="M28" t="n">
-        <v>209.7817210697051</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N28" t="n">
-        <v>134.7810420913196</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O28" t="n">
         <v>502.6753874707917</v>
       </c>
       <c r="P28" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918529</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8976617460256</v>
+        <v>249.4945194599543</v>
       </c>
       <c r="L31" t="n">
         <v>509.3762233141268</v>
@@ -37001,7 +37001,7 @@
         <v>136.7427332388474</v>
       </c>
       <c r="N31" t="n">
-        <v>207.8200299221775</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O31" t="n">
         <v>502.6753874707917</v>
@@ -37010,7 +37010,7 @@
         <v>416.458003261873</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606368</v>
       </c>
       <c r="J33" t="n">
-        <v>109.4743060731844</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K33" t="n">
         <v>173.3611720784495</v>
@@ -37244,10 +37244,10 @@
         <v>502.6753874707917</v>
       </c>
       <c r="P34" t="n">
-        <v>100.5426451070169</v>
+        <v>151.1226676941854</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.066282051897</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>284.0732401173727</v>
       </c>
       <c r="N36" t="n">
-        <v>309.506207995923</v>
+        <v>293.9568688493045</v>
       </c>
       <c r="O36" t="n">
         <v>265.265917255437</v>
@@ -37408,7 +37408,7 @@
         <v>132.0024212991609</v>
       </c>
       <c r="R36" t="n">
-        <v>51.59623089206056</v>
+        <v>67.14557003867912</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918529</v>
       </c>
       <c r="K37" t="n">
         <v>97.11724849953869</v>
@@ -37472,7 +37472,7 @@
         <v>509.3762233141268</v>
       </c>
       <c r="M37" t="n">
-        <v>526.3265576589469</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N37" t="n">
         <v>536.8344995073602</v>
@@ -37481,7 +37481,7 @@
         <v>502.6753874707917</v>
       </c>
       <c r="P37" t="n">
-        <v>100.5426451070169</v>
+        <v>151.1226676941854</v>
       </c>
       <c r="Q37" t="n">
         <v>60.48625946472846</v>
@@ -37624,7 +37624,7 @@
         <v>93.924966926566</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9105112250679</v>
+        <v>173.3611720784495</v>
       </c>
       <c r="L39" t="n">
         <v>240.7089373687432</v>
@@ -37645,7 +37645,7 @@
         <v>132.0024212991609</v>
       </c>
       <c r="R39" t="n">
-        <v>51.59623089206056</v>
+        <v>67.14557003867912</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>129.9283053043579</v>
       </c>
       <c r="K40" t="n">
-        <v>296.2767453948337</v>
+        <v>296.2767453948341</v>
       </c>
       <c r="L40" t="n">
         <v>129.1854217068894</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828429</v>
       </c>
       <c r="J41" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K41" t="n">
         <v>252.4521048373906</v>
       </c>
       <c r="L41" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685869</v>
       </c>
       <c r="M41" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973914</v>
       </c>
       <c r="N41" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662803</v>
       </c>
       <c r="O41" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484202</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326705</v>
       </c>
       <c r="Q41" t="n">
         <v>208.5549183345977</v>
       </c>
       <c r="R41" t="n">
-        <v>107.2956433761853</v>
+        <v>107.2956433761856</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606315</v>
       </c>
       <c r="J42" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656603</v>
       </c>
       <c r="K42" t="n">
         <v>173.3611720784495</v>
       </c>
       <c r="L42" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687433</v>
       </c>
       <c r="M42" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173728</v>
       </c>
       <c r="N42" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493046</v>
       </c>
       <c r="O42" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554371</v>
       </c>
       <c r="P42" t="n">
         <v>209.7259280209964</v>
@@ -37882,7 +37882,7 @@
         <v>132.0024212991609</v>
       </c>
       <c r="R42" t="n">
-        <v>67.14557003867912</v>
+        <v>51.59623089206058</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.799523196354</v>
+        <v>51.2195006091853</v>
       </c>
       <c r="K43" t="n">
-        <v>97.11724849953869</v>
+        <v>97.11724849953872</v>
       </c>
       <c r="L43" t="n">
-        <v>509.3762233141268</v>
+        <v>244.0408877464399</v>
       </c>
       <c r="M43" t="n">
         <v>554.4553397669503</v>
@@ -37955,10 +37955,10 @@
         <v>502.6753874707917</v>
       </c>
       <c r="P43" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.48625946472846</v>
+        <v>60.48625946472849</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828429</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K44" t="n">
         <v>252.4521048373906</v>
       </c>
       <c r="L44" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685869</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973914</v>
       </c>
       <c r="N44" t="n">
         <v>367.0105598662802</v>
       </c>
       <c r="O44" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484202</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326705</v>
       </c>
       <c r="Q44" t="n">
         <v>208.5549183345977</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944524</v>
       </c>
       <c r="J45" t="n">
-        <v>93.924966926566</v>
+        <v>93.92496692656603</v>
       </c>
       <c r="K45" t="n">
         <v>173.3611720784495</v>
       </c>
       <c r="L45" t="n">
-        <v>256.2582765153617</v>
+        <v>240.7089373687433</v>
       </c>
       <c r="M45" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173728</v>
       </c>
       <c r="N45" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493046</v>
       </c>
       <c r="O45" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554371</v>
       </c>
       <c r="P45" t="n">
         <v>209.7259280209964</v>
@@ -38119,7 +38119,7 @@
         <v>132.0024212991609</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206056</v>
+        <v>67.14557003867867</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>129.9283053043579</v>
       </c>
       <c r="K46" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953872</v>
       </c>
       <c r="L46" t="n">
-        <v>509.3762233141268</v>
+        <v>129.1854217068895</v>
       </c>
       <c r="M46" t="n">
         <v>554.4553397669503</v>
       </c>
       <c r="N46" t="n">
-        <v>134.7810420913196</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O46" t="n">
-        <v>158.0017687735466</v>
+        <v>502.6753874707917</v>
       </c>
       <c r="P46" t="n">
-        <v>416.458003261873</v>
+        <v>299.7021420023124</v>
       </c>
       <c r="Q46" t="n">
         <v>213.3887820686669</v>
